--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Dropbox\Desk\Projects\projects_other\project_ti_auswertung\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642CC615-11A0-43CC-841D-F8DBA1045AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73BF3DB-18D8-4652-955A-73739ED9AC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16356" yWindow="2580" windowWidth="34560" windowHeight="13512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="120">
   <si>
     <t>game_id</t>
   </si>
@@ -372,6 +372,30 @@
   </si>
   <si>
     <t>Rise and Shine</t>
+  </si>
+  <si>
+    <t>694079731cb455091b9a92cb</t>
+  </si>
+  <si>
+    <t>69505c9be44f36bfafb98b45</t>
+  </si>
+  <si>
+    <t>6962727b1e677f7a6f600b1e</t>
+  </si>
+  <si>
+    <t>696cdb2972af55390d4e54d5</t>
+  </si>
+  <si>
+    <t>TI We verlängert, wenn ihr euch noch in die Augen schauen könnt</t>
+  </si>
+  <si>
+    <t>Jetzt mal ohne Fehler bitte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommy ist einfach Tommy </t>
+  </si>
+  <si>
+    <t>The return of the Timmy</t>
   </si>
 </sst>
 </file>
@@ -697,21 +721,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:XFD117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -739,7 +763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -753,7 +777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -767,7 +791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -781,7 +805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -795,7 +819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -809,7 +833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -823,7 +847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -837,7 +861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -851,7 +875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -865,7 +889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -879,7 +903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -893,7 +917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -907,7 +931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -921,7 +945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -935,7 +959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -949,7 +973,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -963,7 +987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -977,7 +1001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -991,7 +1015,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -1005,7 +1029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1019,7 +1043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -1033,7 +1057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1047,7 +1071,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -1061,7 +1085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1075,7 +1099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1089,7 +1113,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1103,7 +1127,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -1117,7 +1141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1131,7 +1155,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1145,7 +1169,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1159,7 +1183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -1173,7 +1197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -1187,7 +1211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -1201,7 +1225,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -1215,7 +1239,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -1229,7 +1253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -1243,7 +1267,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -1257,7 +1281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -1271,7 +1295,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -1285,7 +1309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -1299,7 +1323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -1313,7 +1337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -1327,7 +1351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -1341,7 +1365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -1355,7 +1379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -1369,7 +1393,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -1383,7 +1407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -1397,7 +1421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -1411,7 +1435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -1425,7 +1449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -1439,7 +1463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -1453,7 +1477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -1467,7 +1491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -1481,7 +1505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -1495,7 +1519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -1509,7 +1533,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -1523,7 +1547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -1537,7 +1561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -1551,7 +1575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -1565,7 +1589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -1579,7 +1603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -1593,7 +1617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -1607,7 +1631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -1621,7 +1645,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -1635,7 +1659,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -1649,7 +1673,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -1663,7 +1687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -1677,7 +1701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -1691,7 +1715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -1705,7 +1729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -1719,7 +1743,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -1733,7 +1757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -1747,7 +1771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -1761,7 +1785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -1775,7 +1799,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -1789,7 +1813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>87</v>
       </c>
@@ -1803,7 +1827,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -1817,7 +1841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -1831,7 +1855,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -1845,7 +1869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -1859,7 +1883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -1873,7 +1897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>91</v>
       </c>
@@ -1887,7 +1911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -1901,7 +1925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -1915,7 +1939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -1929,7 +1953,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -1943,7 +1967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -1957,7 +1981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -1971,7 +1995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -1985,7 +2009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -1999,7 +2023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -2013,7 +2037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2027,7 +2051,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2041,7 +2065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2055,7 +2079,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -2069,7 +2093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -2083,7 +2107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -2097,7 +2121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -2111,7 +2135,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2125,7 +2149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -2139,7 +2163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -2153,7 +2177,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2167,7 +2191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -2181,7 +2205,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -2195,7 +2219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2209,7 +2233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -2223,7 +2247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2237,7 +2261,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2251,7 +2275,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2265,7 +2289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -2279,7 +2303,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -2291,6 +2315,188 @@
       </c>
       <c r="D113" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>113</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>113</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>113</v>
+      </c>
+      <c r="B119" t="s">
+        <v>50</v>
+      </c>
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>114</v>
+      </c>
+      <c r="B120" t="s">
+        <v>50</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>114</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>114</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>115</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>115</v>
+      </c>
+      <c r="B124" t="s">
+        <v>50</v>
+      </c>
+      <c r="C124">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>115</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>115</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2301,21 +2507,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8F1982-CDD4-4795-9923-90E8136A1DF7}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2335,7 +2541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2355,7 +2561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2375,7 +2581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2395,7 +2601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -2415,7 +2621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -2435,7 +2641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2455,7 +2661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -2475,7 +2681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -2495,7 +2701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -2515,7 +2721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2535,7 +2741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2555,7 +2761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -2575,7 +2781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2595,7 +2801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -2615,7 +2821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -2635,7 +2841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -2655,7 +2861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -2675,7 +2881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -2695,7 +2901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -2715,7 +2921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -2735,7 +2941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -2755,7 +2961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -2775,7 +2981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -2795,7 +3001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -2815,7 +3021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -2835,7 +3041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -2855,7 +3061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -2875,7 +3081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -2895,7 +3101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>104</v>
       </c>
@@ -2915,7 +3121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -2935,7 +3141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -2955,7 +3161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -2972,6 +3178,86 @@
         <v>45959</v>
       </c>
       <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>46006</v>
+      </c>
+      <c r="E34" s="1">
+        <v>46018</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>46018</v>
+      </c>
+      <c r="E35" s="1">
+        <v>46032</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>46032</v>
+      </c>
+      <c r="E36" s="1">
+        <v>46037</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>46040</v>
+      </c>
+      <c r="E37" s="1">
+        <v>46055</v>
+      </c>
+      <c r="F37">
         <v>5</v>
       </c>
     </row>
@@ -2988,13 +3274,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -3002,7 +3288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3010,7 +3296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3018,7 +3304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -3026,7 +3312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3034,7 +3320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3042,7 +3328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3050,7 +3336,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -3058,7 +3344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3066,7 +3352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -3074,7 +3360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3082,7 +3368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3090,7 +3376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3098,7 +3384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -3106,7 +3392,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3114,7 +3400,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -3122,7 +3408,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3130,7 +3416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>

--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Dropbox\Desk\Projects\projects_other\project_ti_auswertung\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73BF3DB-18D8-4652-955A-73739ED9AC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB1229E-AC53-4957-81A5-B3158DB936FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="158">
   <si>
     <t>game_id</t>
   </si>
@@ -396,6 +396,120 @@
   </si>
   <si>
     <t>The return of the Timmy</t>
+  </si>
+  <si>
+    <t>starting_position</t>
+  </si>
+  <si>
+    <t>win_category</t>
+  </si>
+  <si>
+    <t>Statusphase</t>
+  </si>
+  <si>
+    <t>win_description</t>
+  </si>
+  <si>
+    <t>Aktionsphase</t>
+  </si>
+  <si>
+    <t>Agendaphase</t>
+  </si>
+  <si>
+    <t>Aktionsphase: Manu spielt Imperial und scort Lead from the Front</t>
+  </si>
+  <si>
+    <t>Statusphase, Starki Naalu 3 VP mit Public und Sekret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statusphase, Manu Jol 2 VP mit 1 Public und Sekret, hatte auch Imperial aber nur für 1 PO (nicht MR) in Runde. Speaker letzte Runde war Eric </t>
+  </si>
+  <si>
+    <t>Eric in Aktionphase, hatte auch Imperial für 2 VP PO, Sieg aber unklar warum</t>
+  </si>
+  <si>
+    <t>Win in Agendaphase, da Political Censure</t>
+  </si>
+  <si>
+    <t>Sieg Eric in Aktionphase durch Sekret Destroy Their greatest ship</t>
+  </si>
+  <si>
+    <t>Thomas in Statusphase 2 VP, 1 PO 1 Sekret</t>
+  </si>
+  <si>
+    <t>Thomas in Statusphase 2 VP mit PO</t>
+  </si>
+  <si>
+    <t>Manu in Aktionsphase mit Imperial 1 VP PO</t>
+  </si>
+  <si>
+    <t>Eric in Statusphase mit 2VP PO</t>
+  </si>
+  <si>
+    <t>Eric in Agendaphase mit Crown of Emphidia</t>
+  </si>
+  <si>
+    <t>Frank, Aktionsphase, Sekret Destroy their greatest Ship</t>
+  </si>
+  <si>
+    <t>Manu, Aktionsphase, Sekret Destroy their greatest Ship</t>
+  </si>
+  <si>
+    <t>Eric, Statusphase 1 VP mit Sekret</t>
+  </si>
+  <si>
+    <t>Frank, Statusphase 1 VP mit PO</t>
+  </si>
+  <si>
+    <t>Thomas, Statusphase, 1 VP mit PO</t>
+  </si>
+  <si>
+    <t>Thomas durch Support Trade</t>
+  </si>
+  <si>
+    <t>Manu in Statusphase, 2 VP mit PO</t>
+  </si>
+  <si>
+    <t>Eric in Aktionsphase mit Imperial, 1 VP PO und 1 VP MR</t>
+  </si>
+  <si>
+    <t>Thomas in Statusphase 1 VP mit PO</t>
+  </si>
+  <si>
+    <t>Manu in Statusphase, 1 VP mit PO</t>
+  </si>
+  <si>
+    <t>Thomas in Aktionsphase mit Sekret Destroy Their greates Ship</t>
+  </si>
+  <si>
+    <t>Eric in Aktionsphase durch Shard of the Throne</t>
+  </si>
+  <si>
+    <t>Eric in Agendaphase durch Mutiny</t>
+  </si>
+  <si>
+    <t>Manu in Aktionsphase durch Spark a Rebellion</t>
+  </si>
+  <si>
+    <t>Thomas in Statusphase 2 VP durch PO</t>
+  </si>
+  <si>
+    <t>Eric in Statusphase mit 3VP, 2 PO und 1 Sekret</t>
+  </si>
+  <si>
+    <t>Eric in Aktionsphase, Demonstrate your Power</t>
+  </si>
+  <si>
+    <t>Eric in Statusphase 2 VP, 1 PO und 1 Sekret</t>
+  </si>
+  <si>
+    <t>Thomas in Aktionsphase mit Imperial und 2 VP PO</t>
+  </si>
+  <si>
+    <t>Thomas in Aktionsphase 1 VP mit Imperial MR</t>
+  </si>
+  <si>
+    <t>Manu in Aktionsphase 2 VP mit Imperial PO</t>
   </si>
 </sst>
 </file>
@@ -721,21 +835,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:XFD117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,8 +863,11 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -762,8 +880,11 @@
       <c r="D2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -776,8 +897,11 @@
       <c r="D3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -790,8 +914,11 @@
       <c r="D4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -804,8 +931,11 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -818,1685 +948,2065 @@
       <c r="D6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>51</v>
       </c>
       <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>53</v>
       </c>
       <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>57</v>
       </c>
       <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>59</v>
       </c>
       <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
         <v>9</v>
       </c>
-      <c r="C28">
-        <v>7</v>
-      </c>
       <c r="D28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>61</v>
       </c>
       <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>66</v>
       </c>
       <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
         <v>9</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>5</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40">
-        <v>14</v>
-      </c>
-      <c r="D40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>68</v>
       </c>
       <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
         <v>15</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>9</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C50">
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C51">
         <v>7</v>
       </c>
       <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52">
-        <v>10</v>
-      </c>
-      <c r="D52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>76</v>
       </c>
       <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
         <v>15</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>3</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C59">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>78</v>
       </c>
       <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
         <v>15</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>11</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62">
-        <v>10</v>
-      </c>
-      <c r="D62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C64">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C65">
         <v>7</v>
       </c>
       <c r="D65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66">
-        <v>10</v>
-      </c>
-      <c r="D66" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C67">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>82</v>
       </c>
       <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
         <v>50</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>8</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>83</v>
       </c>
       <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" t="s">
         <v>15</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <v>7</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72">
-        <v>10</v>
-      </c>
-      <c r="D72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>85</v>
       </c>
       <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74">
         <v>9</v>
       </c>
-      <c r="C74">
-        <v>8</v>
-      </c>
       <c r="D74" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>85</v>
       </c>
       <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
         <v>11</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>6</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C78">
         <v>9</v>
       </c>
       <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>89</v>
-      </c>
-      <c r="B79" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C81">
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
         <v>50</v>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C84">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C85">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C88">
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>93</v>
       </c>
       <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
         <v>50</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>8</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90">
-        <v>10</v>
-      </c>
-      <c r="D90" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D93" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C94">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>96</v>
       </c>
       <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
         <v>11</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>8</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" t="s">
-        <v>50</v>
-      </c>
-      <c r="C96">
-        <v>10</v>
-      </c>
-      <c r="D96" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C97">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
         <v>11</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <v>4</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" t="s">
-        <v>50</v>
-      </c>
-      <c r="C99">
-        <v>10</v>
-      </c>
-      <c r="D99" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C100">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>102</v>
       </c>
       <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
         <v>15</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>8</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102">
-        <v>10</v>
-      </c>
-      <c r="D102" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C103">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>104</v>
       </c>
       <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>63</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
         <v>50</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>8</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105">
-        <v>10</v>
-      </c>
-      <c r="D105" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C106">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>107</v>
       </c>
       <c r="B107" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
         <v>15</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>8</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C109">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
         <v>50</v>
       </c>
-      <c r="C110">
+      <c r="C111">
         <v>6</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>15</v>
-      </c>
-      <c r="C111">
-        <v>10</v>
-      </c>
-      <c r="D111" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C113">
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
         <v>50</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>112</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C115">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>112</v>
       </c>
       <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>112</v>
+      </c>
+      <c r="B117" t="s">
         <v>15</v>
       </c>
-      <c r="C116">
+      <c r="C117">
         <v>6</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D117" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>113</v>
-      </c>
-      <c r="B117" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117">
-        <v>10</v>
-      </c>
-      <c r="D117" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>113</v>
       </c>
       <c r="B119" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B120" t="s">
         <v>50</v>
       </c>
       <c r="C120">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D120" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>114</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C121">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>114</v>
       </c>
       <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>114</v>
+      </c>
+      <c r="B123" t="s">
         <v>11</v>
       </c>
-      <c r="C122">
+      <c r="C123">
         <v>7</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D123" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>115</v>
-      </c>
-      <c r="B123" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123">
-        <v>10</v>
-      </c>
-      <c r="D123" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>115</v>
       </c>
       <c r="B124" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C124">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>115</v>
       </c>
       <c r="B125" t="s">
+        <v>50</v>
+      </c>
+      <c r="C125">
         <v>9</v>
       </c>
-      <c r="C125">
-        <v>8</v>
-      </c>
       <c r="D125" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>115</v>
       </c>
       <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>115</v>
+      </c>
+      <c r="B127" t="s">
         <v>11</v>
       </c>
-      <c r="C126">
+      <c r="C127">
         <v>4</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>39</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2507,10 +3017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8F1982-CDD4-4795-9923-90E8136A1DF7}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="D26" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2519,9 +3029,10 @@
     <col min="2" max="2" width="25.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.90625" style="1"/>
+    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2540,8 +3051,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2560,8 +3077,14 @@
       <c r="F2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2580,8 +3103,14 @@
       <c r="F3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2600,8 +3129,14 @@
       <c r="F4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -2620,8 +3155,14 @@
       <c r="F5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -2640,8 +3181,14 @@
       <c r="F6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2660,8 +3207,14 @@
       <c r="F7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -2680,8 +3233,14 @@
       <c r="F8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -2700,8 +3259,14 @@
       <c r="F9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -2720,8 +3285,14 @@
       <c r="F10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2740,8 +3311,14 @@
       <c r="F11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2760,8 +3337,14 @@
       <c r="F12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -2780,8 +3363,14 @@
       <c r="F13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -2800,8 +3389,14 @@
       <c r="F14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -2820,8 +3415,14 @@
       <c r="F15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -2840,8 +3441,14 @@
       <c r="F16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -2860,8 +3467,14 @@
       <c r="F17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3493,14 @@
       <c r="F18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -2900,8 +3519,14 @@
       <c r="F19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -2920,8 +3545,14 @@
       <c r="F20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -2940,8 +3571,14 @@
       <c r="F21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -2960,8 +3597,14 @@
       <c r="F22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -2980,8 +3623,14 @@
       <c r="F23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -3000,8 +3649,14 @@
       <c r="F24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -3020,8 +3675,14 @@
       <c r="F25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -3040,8 +3701,14 @@
       <c r="F26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -3060,8 +3727,14 @@
       <c r="F27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -3080,8 +3753,14 @@
       <c r="F28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -3100,8 +3779,14 @@
       <c r="F29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>104</v>
       </c>
@@ -3120,8 +3805,14 @@
       <c r="F30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -3140,8 +3831,14 @@
       <c r="F31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -3160,8 +3857,14 @@
       <c r="F32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -3180,8 +3883,14 @@
       <c r="F33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -3200,8 +3909,14 @@
       <c r="F34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -3220,8 +3935,14 @@
       <c r="F35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -3240,8 +3961,14 @@
       <c r="F36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -3259,6 +3986,12 @@
       </c>
       <c r="F37">
         <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
